--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -1,44 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\way2automation\PycharmProjects\AppiumPageObjectModel\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty_Python\WellmifyTests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866D82B9-715C-453D-B1F1-0A1A6D10D98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E199B5F-A372-46BE-8550-943F07605088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23040" yWindow="912" windowWidth="21660" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SearchTest" sheetId="1" r:id="rId1"/>
-    <sheet name="VillaTest" sheetId="2" r:id="rId2"/>
+    <sheet name="BookingTest" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>Shubham Vilas</t>
-  </si>
-  <si>
-    <t>Savoy Suites Hotel Apartment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>service_info</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Magic Nails</t>
+  </si>
+  <si>
+    <t>service_type</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>Marszałkowska, Warszawa</t>
+  </si>
+  <si>
+    <t>stationary</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>service name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direct </t>
+  </si>
+  <si>
+    <t>japan_manicure</t>
   </si>
 </sst>
 </file>
@@ -78,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -94,9 +112,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +152,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +258,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,69 +408,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B07524-A26A-420B-871C-7D4A984E16B3}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC20439-3E50-40D8-A3D0-9FB49B6D16BE}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty_Python\WellmifyTests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E199B5F-A372-46BE-8550-943F07605088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929680DC-840B-4E74-9538-34755BDD146E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="912" windowWidth="21660" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BookingTest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>service_info</t>
   </si>
@@ -29,9 +29,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Magic Nails</t>
-  </si>
-  <si>
     <t>service_type</t>
   </si>
   <si>
@@ -53,10 +50,10 @@
     <t>service name</t>
   </si>
   <si>
-    <t xml:space="preserve">direct </t>
-  </si>
-  <si>
     <t>japan_manicure</t>
+  </si>
+  <si>
+    <t>Magic Nails SP</t>
   </si>
 </sst>
 </file>
@@ -411,14 +408,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -429,47 +428,44 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty_Python\WellmifyTests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929680DC-840B-4E74-9538-34755BDD146E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6230784-7E5D-4697-9F0B-E5E7249E426C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <t>japan_manicure</t>
   </si>
   <si>
-    <t>Magic Nails SP</t>
+    <t>Magic Nails</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty_Python\WellmifyTests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6230784-7E5D-4697-9F0B-E5E7249E426C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423514D2-46D7-40B7-A78B-B98AA2DF613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BookingTest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>service_info</t>
   </si>
@@ -50,10 +50,13 @@
     <t>service name</t>
   </si>
   <si>
-    <t>japan_manicure</t>
-  </si>
-  <si>
-    <t>Magic Nails</t>
+    <t>PAZNOKCIE_MANICURE_JAPOŃSKI</t>
+  </si>
+  <si>
+    <t>Automation SP</t>
+  </si>
+  <si>
+    <t>BRWI_HENNA_BRWI</t>
   </si>
 </sst>
 </file>
@@ -408,19 +411,19 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -451,7 +454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -465,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -480,7 +483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty_Python\WellmifyTests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423514D2-46D7-40B7-A78B-B98AA2DF613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5416733B-9148-4C6B-BADE-B81E922528B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BookingTest" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,13 @@
     <t>service name</t>
   </si>
   <si>
-    <t>PAZNOKCIE_MANICURE_JAPOŃSKI</t>
-  </si>
-  <si>
     <t>Automation SP</t>
   </si>
   <si>
     <t>BRWI_HENNA_BRWI</t>
+  </si>
+  <si>
+    <t>PAZNOKCIE_MANICURE_JAPOŃSKI;BRWI_HENNA_BRWI</t>
   </si>
 </sst>
 </file>
@@ -411,19 +411,19 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,26 +440,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -483,7 +483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty_Python\WellmifyTests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5416733B-9148-4C6B-BADE-B81E922528B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F396FB1-0F6A-4551-AD53-2EF14D916008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BookingTest" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginTest" sheetId="2" r:id="rId2"/>
+    <sheet name="Express" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>service_info</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>PAZNOKCIE_MANICURE_JAPOŃSKI;BRWI_HENNA_BRWI</t>
+  </si>
+  <si>
+    <t>PAZNOKCIE_MANICURE_JAPOŃSKI</t>
   </si>
 </sst>
 </file>
@@ -410,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,12 +482,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC20439-3E50-40D8-A3D0-9FB49B6D16BE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>